--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4420.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4420.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4420</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>David J Willey</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>13/11/2015</t>
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +958,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>20/11/2015</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1104,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1255,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1302,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1349,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1340,7 +1396,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>02/07/2016</t>
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1556,7 +1611,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1608,7 +1663,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1660,7 +1715,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1700,7 +1755,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>22/01/2017</t>
@@ -1708,7 +1762,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1748,7 +1802,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>05/05/2017</t>
@@ -1756,7 +1809,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1808,7 +1861,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1860,7 +1913,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1900,7 +1953,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -1908,7 +1960,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1948,7 +2000,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -1956,7 +2007,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2008,7 +2059,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2060,7 +2111,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2112,7 +2163,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2152,7 +2203,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -2160,7 +2210,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2212,7 +2262,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2264,7 +2314,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2316,7 +2366,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2368,7 +2418,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2408,7 +2458,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>21/06/2018</t>
@@ -2416,7 +2465,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2468,7 +2517,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2520,7 +2569,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2560,7 +2609,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -2568,7 +2616,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2620,7 +2668,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2660,7 +2708,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -2668,7 +2715,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2708,7 +2755,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>14/05/2019</t>
@@ -2716,7 +2762,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2768,7 +2814,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2808,7 +2854,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>30/07/2020</t>
@@ -2816,7 +2861,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2868,7 +2913,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2920,7 +2965,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2960,7 +3005,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>29/06/2021</t>
@@ -2968,7 +3012,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3008,7 +3052,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -3016,7 +3059,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3056,7 +3099,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -3064,7 +3106,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3104,7 +3146,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -3112,7 +3153,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3152,7 +3193,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -3160,7 +3200,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3200,7 +3240,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>22/06/2022</t>
@@ -3208,7 +3247,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4602</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3260,7 +3299,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3312,7 +3351,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3364,7 +3403,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3416,7 +3455,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3456,7 +3495,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -3464,7 +3502,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3516,7 +3554,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3568,7 +3606,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3620,7 +3658,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3672,7 +3710,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3711,7 +3749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3733,7 +3771,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3770,7 +3808,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3807,7 +3845,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3844,7 +3882,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3881,7 +3919,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3918,7 +3956,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3955,7 +3993,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3992,7 +4030,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4029,7 +4067,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4066,7 +4104,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4103,7 +4141,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4140,7 +4178,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4177,7 +4215,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4214,7 +4252,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4251,7 +4289,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4288,7 +4326,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4325,7 +4363,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4362,7 +4400,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4399,7 +4437,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4436,7 +4474,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4473,7 +4511,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4510,7 +4548,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4547,7 +4585,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4584,7 +4622,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4621,7 +4659,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4658,7 +4696,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4695,7 +4733,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4732,7 +4770,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4769,7 +4807,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4806,7 +4844,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4843,7 +4881,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4880,7 +4918,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4917,7 +4955,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4954,7 +4992,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4991,7 +5029,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5028,7 +5066,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5065,7 +5103,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5102,7 +5140,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5139,7 +5177,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5176,7 +5214,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5213,7 +5251,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5250,7 +5288,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5287,7 +5325,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5324,7 +5362,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5361,7 +5399,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5398,7 +5436,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5435,7 +5473,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5472,7 +5510,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5509,7 +5547,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5546,7 +5584,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5583,7 +5621,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5620,7 +5658,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5657,7 +5695,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5694,7 +5732,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5731,7 +5769,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4602</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5768,7 +5806,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5805,7 +5843,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5842,7 +5880,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5879,7 +5917,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5916,7 +5954,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5953,7 +5991,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5990,7 +6028,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6027,7 +6065,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6064,7 +6102,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6090,6 +6128,495 @@
       <c r="G64" t="inlineStr">
         <is>
           <t>0/38</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.99%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.76%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15.55%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>19.09%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.95%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10.45%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.95%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4420.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4420.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6188,15 +6189,437 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.99%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.76%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15.55%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>19.09%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.95%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10.45%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.95%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6204,27 +6627,14 @@
           <t>4300</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.99%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6236,13 +6646,6 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6250,27 +6653,14 @@
           <t>4427</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.76%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6280,27 +6670,14 @@
           <t>4428</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15.55%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6310,15 +6687,14 @@
           <t>4469</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -6328,15 +6704,14 @@
           <t>4470</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -6348,13 +6723,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6364,13 +6732,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6380,13 +6741,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6394,15 +6748,14 @@
           <t>4602</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -6412,29 +6765,12 @@
           <t>4609</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>19.09%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6442,27 +6778,14 @@
           <t>4613</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6472,29 +6795,12 @@
           <t>4618</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6502,27 +6808,14 @@
           <t>4620</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10.45%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6534,13 +6827,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6550,13 +6836,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6566,13 +6845,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6582,13 +6854,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6596,29 +6861,12 @@
           <t>4698</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.95%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4420.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4420.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -570,7 +569,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3112,7 +3111,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3508,7 +3507,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6189,6 +6188,10 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6231,6 +6234,10 @@
           <t>4426</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6306,6 +6313,9 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6321,6 +6331,9 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6333,6 +6346,10 @@
           <t>4471</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6345,6 +6362,10 @@
           <t>4598</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6357,6 +6378,10 @@
           <t>4599</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6372,6 +6397,9 @@
       <c r="B12" t="n">
         <v>8</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6504,6 +6532,10 @@
           <t>4622</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6516,6 +6548,10 @@
           <t>4660</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6528,6 +6564,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6540,6 +6580,10 @@
           <t>4666</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6575,298 +6619,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4420.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4420.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -911,6 +912,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>13/11/2015</t>
@@ -958,6 +960,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -1005,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>20/11/2015</t>
@@ -1104,6 +1108,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -1255,6 +1260,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -1302,6 +1308,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -1349,6 +1356,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -1396,6 +1404,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>02/07/2016</t>
@@ -1755,6 +1764,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>22/01/2017</t>
@@ -1802,6 +1812,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>05/05/2017</t>
@@ -1953,6 +1964,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -2000,6 +2012,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -2203,6 +2216,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -2458,6 +2472,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>21/06/2018</t>
@@ -2609,6 +2624,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -2708,6 +2724,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -2755,6 +2772,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>14/05/2019</t>
@@ -2854,6 +2872,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>30/07/2020</t>
@@ -3005,6 +3024,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>29/06/2021</t>
@@ -3052,6 +3072,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -3099,6 +3120,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -3146,6 +3168,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -3193,6 +3216,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -3240,6 +3264,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>22/06/2022</t>
@@ -3495,6 +3520,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -6134,493 +6160,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.99%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.76%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15.55%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>19.09%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10.45%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.95%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>